--- a/Parts_List.xlsx
+++ b/Parts_List.xlsx
@@ -16,6 +16,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Parts_List!$A$1:$J$53</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Parts_List!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
@@ -276,27 +277,12 @@
     <t>Sullins</t>
   </si>
   <si>
-    <t>PPTC081LFBN-RC</t>
-  </si>
-  <si>
-    <t>CONN HEADER FEMALE 8POS .1" TIN</t>
-  </si>
-  <si>
-    <t>SULLINS_PPTC081LFBN-RC</t>
-  </si>
-  <si>
     <t>part number for stepstick interface</t>
   </si>
   <si>
-    <t>PPTC202LFBN-RC</t>
-  </si>
-  <si>
     <t>CONN HEADER FEM 40POS .1" DL TIN</t>
   </si>
   <si>
-    <t>SULLINS_PPTC202LFBN-RC</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -541,6 +527,21 @@
   </si>
   <si>
     <t>SOT95P280X145-5N</t>
+  </si>
+  <si>
+    <t>PPPC081LFBN-RC</t>
+  </si>
+  <si>
+    <t>PPPC202LFBN-RC</t>
+  </si>
+  <si>
+    <t>CONN HEADER FEMALE 8POS .1" G</t>
+  </si>
+  <si>
+    <t>SULLINS_PPxC202LFBN-RC</t>
+  </si>
+  <si>
+    <t>SULLINS_PPxC081LFBN-RC</t>
   </si>
 </sst>
 </file>
@@ -1408,8 +1409,8 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1954,7 +1955,7 @@
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>16</v>
@@ -2090,7 +2091,7 @@
         <v>3</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>16</v>
@@ -2158,7 +2159,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>16</v>
@@ -2183,16 +2184,16 @@
         <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E23" s="2">
         <v>4</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>16</v>
@@ -2217,16 +2218,16 @@
         <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>16</v>
@@ -2249,16 +2250,16 @@
         <v>83</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>16</v>
@@ -2360,7 +2361,7 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>16</v>
@@ -2419,16 +2420,16 @@
         <v>83</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>85</v>
+        <v>170</v>
       </c>
       <c r="E30" s="2">
         <v>8</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>86</v>
+        <v>172</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>16</v>
@@ -2441,10 +2442,10 @@
       </c>
       <c r="J30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>SULLINS_PPTC081LFBN-RC.kicad_mod</v>
+        <v>SULLINS_PPxC081LFBN-RC.kicad_mod</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2455,16 +2456,16 @@
         <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>16</v>
@@ -2477,28 +2478,28 @@
       </c>
       <c r="J31" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>SULLINS_PPTC202LFBN-RC.kicad_mod</v>
+        <v>SULLINS_PPxC202LFBN-RC.kicad_mod</v>
       </c>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>16</v>
@@ -2507,7 +2508,7 @@
         <v>16</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J32" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2517,22 +2518,22 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>97</v>
-      </c>
       <c r="D33" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>16</v>
@@ -2541,7 +2542,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J33" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2551,22 +2552,22 @@
     </row>
     <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E34" s="2">
         <v>7</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>16</v>
@@ -2575,7 +2576,7 @@
         <v>16</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="J34" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2585,22 +2586,22 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E35" s="2">
         <v>4</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>16</v>
@@ -2609,7 +2610,7 @@
         <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J35" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2619,22 +2620,22 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>111</v>
-      </c>
       <c r="D36" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E36" s="2">
         <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>16</v>
@@ -2643,7 +2644,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J36" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2653,22 +2654,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>16</v>
@@ -2677,7 +2678,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J37" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2687,22 +2688,22 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>16</v>
@@ -2711,7 +2712,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J38" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2721,22 +2722,22 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>16</v>
@@ -2745,7 +2746,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J39" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2755,22 +2756,22 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>16</v>
@@ -2779,7 +2780,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J40" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2789,22 +2790,22 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E41" s="2">
         <v>4</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>16</v>
@@ -2813,7 +2814,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J41" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2823,22 +2824,22 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>16</v>
@@ -2847,7 +2848,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J42" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2857,22 +2858,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>16</v>
@@ -2881,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J43" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2891,22 +2892,22 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E44" s="2">
         <v>10</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>16</v>
@@ -2915,7 +2916,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J44" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2925,22 +2926,22 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>16</v>
@@ -2949,7 +2950,7 @@
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J45" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2959,22 +2960,22 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="E46" s="2">
         <v>1</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>16</v>
@@ -2983,7 +2984,7 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J46" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2993,22 +2994,22 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E47" s="2">
         <v>2</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>16</v>
@@ -3017,7 +3018,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J47" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3027,22 +3028,22 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E48" s="2">
         <v>2</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>16</v>
@@ -3051,7 +3052,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J48" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3061,20 +3062,20 @@
     </row>
     <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>16</v>
@@ -3083,7 +3084,7 @@
         <v>16</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J49" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3093,22 +3094,22 @@
     </row>
     <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E50" s="2">
         <v>1</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>16</v>
@@ -3117,7 +3118,7 @@
         <v>16</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="J50" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3127,22 +3128,22 @@
     </row>
     <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E51" s="2">
         <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>16</v>
@@ -3151,7 +3152,7 @@
         <v>16</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J51" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3161,22 +3162,22 @@
     </row>
     <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>16</v>
@@ -3185,7 +3186,7 @@
         <v>16</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="J52" s="3" t="str">
         <f t="shared" si="2"/>
@@ -3195,22 +3196,22 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E53" s="2">
         <v>4</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>16</v>

--- a/Parts_List.xlsx
+++ b/Parts_List.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Parts_List" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Parts_List!$A$1:$J$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Parts_List!$A$1:$J$50</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Parts_List!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="173">
   <si>
     <t>Component Type</t>
   </si>
@@ -109,12 +109,6 @@
     <t>CAP CER 62PF 50V NP0 0603</t>
   </si>
   <si>
-    <t>GRM1887U1H622JA01D</t>
-  </si>
-  <si>
-    <t>CAP CER 6200PF 50V U2J 0603</t>
-  </si>
-  <si>
     <t>GRM188R61C106KAALD</t>
   </si>
   <si>
@@ -301,30 +295,9 @@
     <t>IPC_IND.pretty</t>
   </si>
   <si>
-    <t>SRP1265A-8R2M</t>
-  </si>
-  <si>
-    <t>FIXED IND 8.2UH 10.5A 15.5 MOHM</t>
-  </si>
-  <si>
     <t>Q</t>
   </si>
   <si>
-    <t>ST Microelectronics</t>
-  </si>
-  <si>
-    <t>STD86N3LH5</t>
-  </si>
-  <si>
-    <t>MOSFET N-CH 30V 80A</t>
-  </si>
-  <si>
-    <t>TO228P972X240-3N</t>
-  </si>
-  <si>
-    <t>IPC_TO.pretty</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -349,18 +322,6 @@
     <t>RES SMD 10 KOHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>RC0603FR-07178RL</t>
-  </si>
-  <si>
-    <t>RES SMD 178 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RC0603FR-07196RL</t>
-  </si>
-  <si>
-    <t>RES SMD 196 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
     <t>RC0603FR-071K37L</t>
   </si>
   <si>
@@ -373,42 +334,15 @@
     <t>RES SMD 1 KOHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>RC0603FR-072K21L</t>
-  </si>
-  <si>
     <t>RES SMD 2.21K OHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>RC0603FR-072K49L</t>
-  </si>
-  <si>
-    <t>RES SMD 2.49 KOHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RC0603FR-07330RL</t>
-  </si>
-  <si>
-    <t>RES SMD 330 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
     <t>RC0603FR-073K3L</t>
   </si>
   <si>
     <t>RES SMD 3.3 KOHM 1% 1/10W 0603</t>
   </si>
   <si>
-    <t>RC0603FR-07499RL</t>
-  </si>
-  <si>
-    <t>RES SMD 499 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
-    <t>RC0603FR-07510RL</t>
-  </si>
-  <si>
-    <t>RES SMD 510 OHM 1% 1/10W 0603</t>
-  </si>
-  <si>
     <t>RC0603FR-0756K2L</t>
   </si>
   <si>
@@ -514,9 +448,6 @@
     <t>CONN HEADER .100" SNGL STR 4POS</t>
   </si>
   <si>
-    <t>SULLINS_</t>
-  </si>
-  <si>
     <t>PHEONIX_1923869</t>
   </si>
   <si>
@@ -542,6 +473,75 @@
   </si>
   <si>
     <t>SULLINS_PPxC081LFBN-RC</t>
+  </si>
+  <si>
+    <t>CAP CER 5600PF 50V U2J 0603</t>
+  </si>
+  <si>
+    <t>GRM1887U1H562JA01D</t>
+  </si>
+  <si>
+    <t>RE1J002YNTCL</t>
+  </si>
+  <si>
+    <t>Rohm</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 1.2V DRIVE EMT3FM</t>
+  </si>
+  <si>
+    <t>SOTFL3P50_160X85L45X28N</t>
+  </si>
+  <si>
+    <t>IPC_SOFL.pretty</t>
+  </si>
+  <si>
+    <t>RES SMD 665 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-07665RL</t>
+  </si>
+  <si>
+    <t>RC0603FR-07191RL</t>
+  </si>
+  <si>
+    <t>RES SMD 191 OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>GRM188R61C105KA93D</t>
+  </si>
+  <si>
+    <t>CAP CER 1UF 16V X5R 0603</t>
+  </si>
+  <si>
+    <t>LP38693SD-3.3/NOPB</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IC REG LDO 3.3V 0.5A 6WSON</t>
+  </si>
+  <si>
+    <t>SON7P95_300X300X80L40X35T210X160N</t>
+  </si>
+  <si>
+    <t>IPC_SON.pretty</t>
+  </si>
+  <si>
+    <t>SULLINS_PRPC002SAAN-RC</t>
+  </si>
+  <si>
+    <t>SULLINS_PRPC003SAAN-RC</t>
+  </si>
+  <si>
+    <t>SULLINS_PRPC004SAAN-RC</t>
+  </si>
+  <si>
+    <t>SI7386DP-T1-E3</t>
+  </si>
+  <si>
+    <t>Vishay</t>
+  </si>
+  <si>
+    <t>MOSFET N-CH 30V 12A PPAK SO-8</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1081,6 +1081,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1406,25 +1412,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="47.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1462,7 +1469,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -1496,7 +1503,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1517,7 @@
         <v>20</v>
       </c>
       <c r="E3" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>21</v>
@@ -1559,7 +1566,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="3" t="str">
-        <f t="shared" ref="J4:J23" si="1">IF(AND(OR(G4="Y",G4="y"),OR(H4="Y",H4="y")),F4&amp;".kicad_mod","")</f>
+        <f t="shared" ref="J4:J24" si="1">IF(AND(OR(G4="Y",G4="y"),OR(H4="Y",H4="y")),F4&amp;".kicad_mod","")</f>
         <v>CAPC1608X90N.kicad_mod</v>
       </c>
       <c r="K4" s="2"/>
@@ -1578,7 +1585,7 @@
         <v>27</v>
       </c>
       <c r="E5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>25</v>
@@ -1606,10 +1613,10 @@
         <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -1640,16 +1647,16 @@
         <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
@@ -1674,13 +1681,13 @@
         <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>25</v>
@@ -1708,16 +1715,16 @@
         <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E9" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
@@ -1742,13 +1749,13 @@
         <v>22</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>25</v>
@@ -1776,13 +1783,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>25</v>
@@ -1810,10 +1817,10 @@
         <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1844,10 +1851,10 @@
         <v>22</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1878,10 +1885,10 @@
         <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -1912,10 +1919,10 @@
         <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
@@ -1940,22 +1947,22 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>162</v>
       </c>
       <c r="E16" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>155</v>
+        <v>25</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>16</v>
@@ -1964,32 +1971,32 @@
         <v>16</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="J16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>LEDM1608X70N.kicad_mod</v>
+        <v>CAPC1608X90N.kicad_mod</v>
       </c>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="D17" s="2" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="E17" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>16</v>
@@ -1998,75 +2005,75 @@
         <v>16</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="J17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>SOD4725X100N.kicad_mod</v>
+        <v>LEDM1608X70N.kicad_mod</v>
       </c>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>SOD4725X100N.kicad_mod</v>
       </c>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -2076,464 +2083,466 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>156</v>
+        <v>62</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>MPD_BK-6010.kicad_mod</v>
+        <v/>
       </c>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1911965</v>
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E21" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>64</v>
+        <v>134</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>MPD_BK-6010.kicad_mod</v>
       </c>
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1911965</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1923869</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>164</v>
+        <v>62</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="J22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>PHEONIX_1923869.kicad_mod</v>
+        <v/>
       </c>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>157</v>
+        <v>70</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1923869</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>158</v>
+        <v>72</v>
       </c>
       <c r="E23" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v/>
+        <v>PHEONIX_1923869.kicad_mod</v>
       </c>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J24" s="3" t="str">
-        <f t="shared" ref="J24:J53" si="2">IF(AND(OR(G24="Y",G24="y"),OR(H24="Y",H24="y")),F24&amp;".kicad_mod","")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>SULLINS_PRPC002SAAN-RC.kicad_mod</v>
       </c>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J25" s="3" t="str">
+        <f t="shared" ref="J25:J51" si="2">IF(AND(OR(G25="Y",G25="y"),OR(H25="Y",H25="y")),F25&amp;".kicad_mod","")</f>
+        <v>SULLINS_PRPC003SAAN-RC.kicad_mod</v>
+      </c>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>SULLINS_PRPC004SAAN-RC.kicad_mod</v>
+      </c>
+      <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>MOLEX_22-23-2041.kicad_mod</v>
+      </c>
+      <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="2">
+        <v>395300002</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="3" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="2">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2">
+        <v>395321002</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J26" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>MOLEX_22-23-2041.kicad_mod</v>
-      </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="2">
-        <v>395300002</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="2">
-        <v>1</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="J27" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2">
-        <v>395321002</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J28" s="3" t="str">
+      <c r="F29" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="3" t="str">
         <f t="shared" si="2"/>
         <v>MOLEX_395321002.kicad_mod</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J29" s="3" t="str">
+      <c r="G30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J30" s="3" t="str">
         <f t="shared" si="2"/>
         <v>TE_5-146254-3.kicad_mod</v>
       </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E30" s="2">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="2">
         <v>8</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J30" s="3" t="str">
+      <c r="F31" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J31" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SULLINS_PPxC081LFBN-RC.kicad_mod</v>
       </c>
-      <c r="K30" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="K31" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="2">
+      <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J31" s="3" t="str">
+      <c r="F32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J32" s="3" t="str">
         <f t="shared" si="2"/>
         <v>SULLINS_PPxC202LFBN-RC.kicad_mod</v>
       </c>
-      <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J32" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>INDM1213X620N.kicad_mod</v>
-      </c>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>16</v>
@@ -2542,7 +2551,7 @@
         <v>16</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J33" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2550,58 +2559,54 @@
       </c>
       <c r="K33" s="2"/>
     </row>
-    <row r="34" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="E34" s="2">
-        <v>7</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>98</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2" t="s">
         <v>16</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>99</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I34" s="2"/>
       <c r="J34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>TO228P972X240-3N.kicad_mod</v>
+        <v/>
       </c>
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>104</v>
+        <v>155</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>16</v>
@@ -2610,32 +2615,32 @@
         <v>16</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>105</v>
+        <v>156</v>
       </c>
       <c r="J35" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>RESC1608X55N.kicad_mod</v>
+        <v>SOTFL3P50_160X85L45X28N.kicad_mod</v>
       </c>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="E36" s="2">
         <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>16</v>
@@ -2644,7 +2649,7 @@
         <v>16</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J36" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2654,22 +2659,22 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="E37" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>16</v>
@@ -2678,7 +2683,7 @@
         <v>16</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J37" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2688,22 +2693,22 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>111</v>
+        <v>160</v>
       </c>
       <c r="E38" s="2">
         <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>16</v>
@@ -2712,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J38" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2722,22 +2727,22 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E39" s="2">
         <v>1</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>16</v>
@@ -2746,7 +2751,7 @@
         <v>16</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J39" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2756,22 +2761,22 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="D40" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>16</v>
@@ -2780,7 +2785,7 @@
         <v>16</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J40" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2790,22 +2795,22 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E41" s="2">
         <v>4</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>16</v>
@@ -2814,7 +2819,7 @@
         <v>16</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J41" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2824,22 +2829,22 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E42" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>16</v>
@@ -2848,7 +2853,7 @@
         <v>16</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J42" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2858,22 +2863,22 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>120</v>
+        <v>158</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="E43" s="2">
         <v>1</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>16</v>
@@ -2882,7 +2887,7 @@
         <v>16</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J43" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2892,22 +2897,22 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E44" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="G44" s="2" t="s">
         <v>16</v>
@@ -2916,7 +2921,7 @@
         <v>16</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J44" s="3" t="str">
         <f t="shared" si="2"/>
@@ -2926,22 +2931,22 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G45" s="2" t="s">
         <v>16</v>
@@ -2950,32 +2955,30 @@
         <v>16</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J45" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>RESC1608X55N.kicad_mod</v>
+        <v>SOP63P600X155-20N.kicad_mod</v>
       </c>
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="2">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G46" s="2" t="s">
         <v>16</v>
@@ -2984,32 +2987,32 @@
         <v>16</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J46" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>RESC1608X55N.kicad_mod</v>
+        <v>SOP80P1030X260-36N.kicad_mod</v>
       </c>
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="E47" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>16</v>
@@ -3018,32 +3021,32 @@
         <v>16</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="J47" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>RESC1608X55N.kicad_mod</v>
+        <v>SOIC127P1030X265-28N.kicad_mod</v>
       </c>
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="E48" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>16</v>
@@ -3052,30 +3055,32 @@
         <v>16</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="J48" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>SOP63P600X155-20N.kicad_mod</v>
+        <v>SOP65P640X120-14N.kicad_mod</v>
       </c>
       <c r="K48" s="2"/>
     </row>
-    <row r="49" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>127</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
       <c r="F49" s="2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>16</v>
@@ -3084,32 +3089,32 @@
         <v>16</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="J49" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>SOP80P1030X260-36N.kicad_mod</v>
+        <v>SOT95P280X145-5N.kicad_mod</v>
       </c>
       <c r="K49" s="2"/>
     </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>141</v>
-      </c>
       <c r="D50" s="2" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E50" s="2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>16</v>
@@ -3118,115 +3123,47 @@
         <v>16</v>
       </c>
       <c r="I50" s="2" t="s">
-        <v>144</v>
+        <v>68</v>
       </c>
       <c r="J50" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>SOIC127P1030X265-28N.kicad_mod</v>
+        <v>stepstick.kicad_mod</v>
       </c>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E51" s="2">
+        <v>123</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="5">
         <v>1</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="J51" s="3" t="str">
+      <c r="J51" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>SOP65P640X120-14N.kicad_mod</v>
-      </c>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="J52" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>SOT95P280X145-5N.kicad_mod</v>
-      </c>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" s="2">
-        <v>4</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J53" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>stepstick.kicad_mod</v>
-      </c>
-      <c r="K53" s="2"/>
+        <v>SON7P95_300X300X80L40X35T210X160N.kicad_mod</v>
+      </c>
+      <c r="K51" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
